--- a/levels/1/mazeCero.xlsx
+++ b/levels/1/mazeCero.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Player</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Portals</t>
+  </si>
+  <si>
+    <t>Powers</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ32"/>
+  <dimension ref="A1:BR32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM25" sqref="AM25"/>
+      <selection activeCell="BK15" sqref="BK15:BR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,9 +478,10 @@
     <col min="66" max="66" width="5.140625" customWidth="1"/>
     <col min="67" max="68" width="4.42578125" customWidth="1"/>
     <col min="69" max="69" width="6.28515625" customWidth="1"/>
+    <col min="70" max="70" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -662,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -847,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1042,7 +1046,7 @@
       <c r="BP3" s="10"/>
       <c r="BQ3" s="10"/>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1818,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2373,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2558,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2743,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2928,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3301,12 +3305,16 @@
         <v>7</v>
       </c>
       <c r="BL15" s="10"/>
-      <c r="BO15" s="10" t="s">
+      <c r="BN15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="BP15" s="10"/>
+      <c r="BO15" s="10"/>
+      <c r="BQ15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR15" s="10"/>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3496,14 +3504,20 @@
       <c r="BL16" t="s">
         <v>2</v>
       </c>
+      <c r="BN16" t="s">
+        <v>1</v>
+      </c>
       <c r="BO16" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP16" t="s">
         <v>2</v>
       </c>
+      <c r="BQ16" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3693,14 +3707,14 @@
       <c r="BL17">
         <v>6</v>
       </c>
+      <c r="BN17">
+        <v>23</v>
+      </c>
       <c r="BO17">
-        <v>23</v>
-      </c>
-      <c r="BP17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3891,7 +3905,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4076,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4261,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4446,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4631,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4816,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5001,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5186,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5371,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5556,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5741,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5926,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6111,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6296,17 +6310,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="BK3:BM3"/>
     <mergeCell ref="BO3:BQ3"/>
     <mergeCell ref="BK15:BL15"/>
-    <mergeCell ref="BO15:BP15"/>
+    <mergeCell ref="BN15:BO15"/>
+    <mergeCell ref="BQ15:BR15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
